--- a/textbook/public/lineChart3D.xlsx
+++ b/textbook/public/lineChart3D.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
@@ -14,27 +14,10 @@
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="4">
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Batch 1</t>
-  </si>
-  <si>
-    <t>Batch 2</t>
-  </si>
-  <si>
-    <t>Batch 3</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt formatCode="yyyy-mm-dd" numFmtId="164"/>
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
   </numFmts>
   <fonts count="1">
     <font>
@@ -63,16 +46,16 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -85,6 +68,9 @@
         <rich>
           <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
           <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
             <a:r>
               <a:t>3D Line Chart</a:t>
             </a:r>
@@ -101,7 +87,7 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>Sheet!B1</f>
+              <f>'Sheet'!B1</f>
             </strRef>
           </tx>
           <spPr>
@@ -119,12 +105,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>Sheet!$A$2:$A$7</f>
+              <f>'Sheet'!$A$2:$A$7</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>Sheet!$B$2:$B$7</f>
+              <f>'Sheet'!$B$2:$B$7</f>
             </numRef>
           </val>
         </ser>
@@ -133,7 +119,7 @@
           <order val="1"/>
           <tx>
             <strRef>
-              <f>Sheet!C1</f>
+              <f>'Sheet'!C1</f>
             </strRef>
           </tx>
           <spPr>
@@ -151,12 +137,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>Sheet!$A$2:$A$7</f>
+              <f>'Sheet'!$A$2:$A$7</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>Sheet!$C$2:$C$7</f>
+              <f>'Sheet'!$C$2:$C$7</f>
             </numRef>
           </val>
         </ser>
@@ -165,7 +151,7 @@
           <order val="2"/>
           <tx>
             <strRef>
-              <f>Sheet!D1</f>
+              <f>'Sheet'!D1</f>
             </strRef>
           </tx>
           <spPr>
@@ -183,12 +169,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>Sheet!$A$2:$A$7</f>
+              <f>'Sheet'!$A$2:$A$7</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>Sheet!$D$2:$D$7</f>
+              <f>'Sheet'!$D$2:$D$7</f>
             </numRef>
           </val>
         </ser>
@@ -207,6 +193,9 @@
             <rich>
               <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
               <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
                 <a:r>
                   <a:t>Test Number</a:t>
                 </a:r>
@@ -231,6 +220,9 @@
             <rich>
               <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
               <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
                 <a:r>
                   <a:t>Size</a:t>
                 </a:r>
@@ -265,7 +257,7 @@
     <from>
       <col>5</col>
       <colOff>0</colOff>
-      <row>0</row>
+      <row>1</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="5400000" cy="2700000"/>
@@ -583,21 +575,29 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Batch 1</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Batch 2</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Batch 3</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2">
       <c r="A2" s="1" t="n">
         <v>42248</v>
       </c>
@@ -611,7 +611,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3">
       <c r="A3" s="1" t="n">
         <v>42249</v>
       </c>
@@ -625,7 +625,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4">
       <c r="A4" s="1" t="n">
         <v>42250</v>
       </c>
@@ -639,7 +639,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5">
       <c r="A5" s="1" t="n">
         <v>42251</v>
       </c>
@@ -653,7 +653,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6">
       <c r="A6" s="1" t="n">
         <v>42252</v>
       </c>
@@ -667,7 +667,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7">
       <c r="A7" s="1" t="n">
         <v>42253</v>
       </c>
@@ -682,7 +682,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>
 </file>